--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_18-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_18-05.xlsx
@@ -191,6 +191,9 @@
     <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -233,6 +236,12 @@
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>RELATROLENE 25 MG 20 CAPS.</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
   </si>
   <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1851,17 +1863,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1869,7 +1881,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1877,17 +1889,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1903,17 +1915,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1921,7 +1933,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1929,17 +1941,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1947,7 +1959,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1955,17 +1967,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1973,7 +1985,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1981,17 +1993,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1999,7 +2011,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2007,13 +2019,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2033,13 +2045,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2059,17 +2071,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2085,13 +2097,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2111,17 +2123,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2137,13 +2149,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2155,7 +2167,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2163,17 +2175,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2181,7 +2193,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2189,13 +2201,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2207,7 +2219,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2221,7 +2233,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2233,7 +2245,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2241,17 +2253,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2259,7 +2271,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2267,17 +2279,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2285,7 +2297,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2293,17 +2305,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2311,7 +2323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2319,13 +2331,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2337,7 +2349,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2345,17 +2357,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2363,7 +2375,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2371,13 +2383,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2389,7 +2401,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2397,17 +2409,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2415,7 +2427,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2429,45 +2441,149 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="K64" s="10">
-        <v>3676.6500000000001</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="11">
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
+        <v>94</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>95</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>15</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
         <v>96</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c t="s" r="F65" s="12">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>9</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
         <v>97</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c t="s" r="I65" s="14">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
         <v>98</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>24</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>99</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>9</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="K68" s="10">
+        <v>3991.6500000000001</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c t="s" r="A69" s="11">
+        <v>100</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c t="s" r="F69" s="12">
+        <v>101</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c t="s" r="I69" s="14">
+        <v>102</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="203">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2655,10 +2771,22 @@
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:N69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
